--- a/Logic46.xlsx
+++ b/Logic46.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\30CF3465B87D17D00E7FD8366A68D7C6\MQL5\Experts\Logic46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B3003F-FDCC-4837-8BAC-4B9C7530BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8289D2D-995F-4EF3-BAE9-0A9652BB2B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1830" windowWidth="25920" windowHeight="15435"/>
   </bookViews>
@@ -1074,1612 +1074,1612 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C2" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D2" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E2" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F2" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J2">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K2">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C3" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D3" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E3" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F3" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J3">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K3">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C4" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D4" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E4" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F4" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G4" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J4">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K4">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C5" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D5" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E5" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F5" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G5" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J5">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K5">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C6" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D6" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E6" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F6" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J6">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K6">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C7" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D7" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E7" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F7" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J7">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K7">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C8" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D8" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E8" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F8" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J8">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K8">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C9" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D9" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E9" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F9" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G9" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J9">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C10" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D10" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E10" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F10" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G10" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J10">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K10">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>1637430</v>
+        <v>1863105</v>
       </c>
       <c r="C11" s="1">
-        <v>637430</v>
+        <v>863105</v>
       </c>
       <c r="D11" s="2">
-        <v>747.28018799999995</v>
+        <v>375.42627199999998</v>
       </c>
       <c r="E11" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.222736</v>
       </c>
       <c r="F11" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.370611</v>
       </c>
       <c r="G11" s="2">
-        <v>1.0490200000000001</v>
+        <v>0.79326099999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>25.794</v>
+        <v>32.7712</v>
       </c>
       <c r="J11">
-        <v>853</v>
+        <v>2299</v>
       </c>
       <c r="K11">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
-        <v>1637430</v>
+        <v>1687494</v>
       </c>
       <c r="C12" s="1">
-        <v>637430</v>
+        <v>687494</v>
       </c>
       <c r="D12" s="2">
-        <v>747.28018799999995</v>
+        <v>807.86604</v>
       </c>
       <c r="E12" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F12" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>1.0490200000000001</v>
+        <v>1.000313</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>25.794</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J12">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K12">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>1637430</v>
+        <v>1687494</v>
       </c>
       <c r="C13" s="1">
-        <v>637430</v>
+        <v>687494</v>
       </c>
       <c r="D13" s="2">
-        <v>747.28018799999995</v>
+        <v>807.86604</v>
       </c>
       <c r="E13" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>1.0490200000000001</v>
+        <v>1.000313</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>25.794</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J13">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K13">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>1637430</v>
+        <v>1687494</v>
       </c>
       <c r="C14" s="1">
-        <v>637430</v>
+        <v>687494</v>
       </c>
       <c r="D14" s="2">
-        <v>747.28018799999995</v>
+        <v>807.86604</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3196889999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>1.4773860000000001</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>1.0490200000000001</v>
+        <v>1.000313</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>25.794</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J14">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K14">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C15" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D15" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E15" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J15">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K15">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C16" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D16" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E16" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G16" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J16">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K16">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C17" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D17" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E17" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J17">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K17">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C18" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D18" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E18" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J18">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K18">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C19" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D19" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E19" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J19">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K19">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C20" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D20" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E20" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G20" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J20">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K20">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1628914</v>
+        <v>1687494</v>
       </c>
       <c r="C21" s="1">
-        <v>628914</v>
+        <v>687494</v>
       </c>
       <c r="D21" s="2">
-        <v>315.71987999999999</v>
+        <v>807.86604</v>
       </c>
       <c r="E21" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3441749999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>1.333145</v>
+        <v>1.1132550000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>0.75978900000000005</v>
+        <v>1.000313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>27.183700000000002</v>
+        <v>33.080599999999997</v>
       </c>
       <c r="J21">
-        <v>1992</v>
+        <v>851</v>
       </c>
       <c r="K21">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>1628914</v>
+        <v>1676253</v>
       </c>
       <c r="C22" s="1">
-        <v>628914</v>
+        <v>676253</v>
       </c>
       <c r="D22" s="2">
-        <v>315.71987999999999</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E22" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>1.333145</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>0.75978900000000005</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>27.183700000000002</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J22">
-        <v>1992</v>
+        <v>868</v>
       </c>
       <c r="K22">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>1628914</v>
+        <v>1676253</v>
       </c>
       <c r="C23" s="1">
-        <v>628914</v>
+        <v>676253</v>
       </c>
       <c r="D23" s="2">
-        <v>315.71987999999999</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E23" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F23" s="2">
-        <v>1.333145</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>0.75978900000000005</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>27.183700000000002</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J23">
-        <v>1992</v>
+        <v>868</v>
       </c>
       <c r="K23">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
-        <v>1628914</v>
+        <v>1676253</v>
       </c>
       <c r="C24" s="1">
-        <v>628914</v>
+        <v>676253</v>
       </c>
       <c r="D24" s="2">
-        <v>315.71987999999999</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E24" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>1.333145</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>0.75978900000000005</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>27.183700000000002</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J24">
-        <v>1992</v>
+        <v>868</v>
       </c>
       <c r="K24">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>1628914</v>
+        <v>1676253</v>
       </c>
       <c r="C25" s="1">
-        <v>628914</v>
+        <v>676253</v>
       </c>
       <c r="D25" s="2">
-        <v>315.71987999999999</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E25" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>1.333145</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>0.75978900000000005</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>27.183700000000002</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J25">
-        <v>1992</v>
+        <v>868</v>
       </c>
       <c r="K25">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>1628914</v>
+        <v>1676253</v>
       </c>
       <c r="C26" s="1">
-        <v>628914</v>
+        <v>676253</v>
       </c>
       <c r="D26" s="2">
-        <v>315.71987999999999</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E26" s="2">
-        <v>1.1880269999999999</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>1.333145</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>0.75978900000000005</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>27.183700000000002</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J26">
-        <v>1992</v>
+        <v>868</v>
       </c>
       <c r="K26">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
-        <v>1624054</v>
+        <v>1676253</v>
       </c>
       <c r="C27" s="1">
-        <v>624054</v>
+        <v>676253</v>
       </c>
       <c r="D27" s="2">
-        <v>731.599062</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E27" s="2">
-        <v>1.312981</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F27" s="2">
-        <v>1.4463839999999999</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G27" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>25.794</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J27">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="K27">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>1624054</v>
+        <v>1676253</v>
       </c>
       <c r="C28" s="1">
-        <v>624054</v>
+        <v>676253</v>
       </c>
       <c r="D28" s="2">
-        <v>731.599062</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E28" s="2">
-        <v>1.312981</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>1.4463839999999999</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>25.794</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J28">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="K28">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1">
-        <v>1624054</v>
+        <v>1676253</v>
       </c>
       <c r="C29" s="1">
-        <v>624054</v>
+        <v>676253</v>
       </c>
       <c r="D29" s="2">
-        <v>731.599062</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E29" s="2">
-        <v>1.312981</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>1.4463839999999999</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>25.794</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J29">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="K29">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>1624054</v>
+        <v>1676253</v>
       </c>
       <c r="C30" s="1">
-        <v>624054</v>
+        <v>676253</v>
       </c>
       <c r="D30" s="2">
-        <v>731.599062</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E30" s="2">
-        <v>1.312981</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>1.4463839999999999</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>25.794</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J30">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="K30">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>1624054</v>
+        <v>1676253</v>
       </c>
       <c r="C31" s="1">
-        <v>624054</v>
+        <v>676253</v>
       </c>
       <c r="D31" s="2">
-        <v>731.599062</v>
+        <v>779.09331799999995</v>
       </c>
       <c r="E31" s="2">
-        <v>1.312981</v>
+        <v>1.3364370000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>1.4463839999999999</v>
+        <v>1.0950530000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.97684899999999997</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>25.794</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="J31">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="K31">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>1624054</v>
+        <v>1365507</v>
       </c>
       <c r="C32" s="1">
-        <v>624054</v>
+        <v>365507</v>
       </c>
       <c r="D32" s="2">
-        <v>731.599062</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E32" s="2">
-        <v>1.312981</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>1.4463839999999999</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G32" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>25.794</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J32">
-        <v>853</v>
+        <v>532</v>
       </c>
       <c r="K32">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
-        <v>1624054</v>
+        <v>1365507</v>
       </c>
       <c r="C33" s="1">
-        <v>624054</v>
+        <v>365507</v>
       </c>
       <c r="D33" s="2">
-        <v>731.599062</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E33" s="2">
-        <v>1.312981</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F33" s="2">
-        <v>1.4463839999999999</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G33" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>25.794</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J33">
-        <v>853</v>
+        <v>532</v>
       </c>
       <c r="K33">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
-        <v>1624054</v>
+        <v>1365507</v>
       </c>
       <c r="C34" s="1">
-        <v>624054</v>
+        <v>365507</v>
       </c>
       <c r="D34" s="2">
-        <v>731.599062</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E34" s="2">
-        <v>1.312981</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F34" s="2">
-        <v>1.4463839999999999</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G34" s="2">
-        <v>1.0311710000000001</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>25.794</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J34">
-        <v>853</v>
+        <v>532</v>
       </c>
       <c r="K34">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>1622297</v>
+        <v>1365507</v>
       </c>
       <c r="C35" s="1">
-        <v>622297</v>
+        <v>365507</v>
       </c>
       <c r="D35" s="2">
-        <v>311.92832099999998</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E35" s="2">
-        <v>1.185678</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G35" s="2">
-        <v>0.751417</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>27.448499999999999</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J35">
-        <v>1995</v>
+        <v>532</v>
       </c>
       <c r="K35">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
-        <v>1622297</v>
+        <v>1365507</v>
       </c>
       <c r="C36" s="1">
-        <v>622297</v>
+        <v>365507</v>
       </c>
       <c r="D36" s="2">
-        <v>311.92832099999998</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E36" s="2">
-        <v>1.185678</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G36" s="2">
-        <v>0.751417</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>27.448499999999999</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J36">
-        <v>1995</v>
+        <v>532</v>
       </c>
       <c r="K36">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
-        <v>1622297</v>
+        <v>1365507</v>
       </c>
       <c r="C37" s="1">
-        <v>622297</v>
+        <v>365507</v>
       </c>
       <c r="D37" s="2">
-        <v>311.92832099999998</v>
+        <v>687.04323299999999</v>
       </c>
       <c r="E37" s="2">
-        <v>1.185678</v>
+        <v>1.3085169999999999</v>
       </c>
       <c r="F37" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.95255299999999998</v>
       </c>
       <c r="G37" s="2">
-        <v>0.751417</v>
+        <v>0.95232700000000003</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>27.448499999999999</v>
+        <v>26.680099999999999</v>
       </c>
       <c r="J37">
-        <v>1995</v>
+        <v>532</v>
       </c>
       <c r="K37">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C38" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D38" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E38" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F38" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G38" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J38">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K38">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C39" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D39" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E39" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F39" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G39" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J39">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K39">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C40" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D40" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E40" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F40" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G40" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J40">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K40">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C41" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D41" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E41" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G41" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J41">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K41">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C42" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D42" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E42" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G42" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J42">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K42">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C43" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D43" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E43" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F43" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G43" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J43">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K43">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C44" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D44" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E44" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G44" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J44">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K44">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C45" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D45" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E45" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F45" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G45" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J45">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K45">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C46" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D46" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E46" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F46" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G46" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J46">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K46">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
-        <v>1622297</v>
+        <v>1358261</v>
       </c>
       <c r="C47" s="1">
-        <v>622297</v>
+        <v>358261</v>
       </c>
       <c r="D47" s="2">
-        <v>311.92832099999998</v>
+        <v>665.91263900000001</v>
       </c>
       <c r="E47" s="2">
-        <v>1.185678</v>
+        <v>1.3005629999999999</v>
       </c>
       <c r="F47" s="2">
-        <v>1.3084960000000001</v>
+        <v>0.93366899999999997</v>
       </c>
       <c r="G47" s="2">
-        <v>0.751417</v>
+        <v>0.92758399999999996</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>27.448499999999999</v>
+        <v>26.815200000000001</v>
       </c>
       <c r="J47">
-        <v>1995</v>
+        <v>538</v>
       </c>
       <c r="K47">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Logic46.xlsx
+++ b/Logic46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\30CF3465B87D17D00E7FD8366A68D7C6\MQL5\Experts\Logic46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8289D2D-995F-4EF3-BAE9-0A9652BB2B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7B1A10-F43A-4C81-9BA4-662AE93056A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="25920" windowHeight="15435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34800" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Tester Optimizator Results" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
@@ -1074,1612 +1074,1612 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C2" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D2" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E2" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F2" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G2" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J2">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K2">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C3" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D3" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E3" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F3" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J3">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K3">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C4" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D4" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E4" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F4" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G4" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J4">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K4">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C5" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D5" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E5" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F5" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J5">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C6" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D6" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E6" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F6" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G6" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J6">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C7" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D7" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E7" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F7" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J7">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K7">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C8" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D8" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E8" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F8" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G8" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J8">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K8">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C9" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D9" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E9" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F9" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J9">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K9">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C10" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D10" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E10" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F10" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G10" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J10">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>1863105</v>
+        <v>1218900</v>
       </c>
       <c r="C11" s="1">
-        <v>863105</v>
+        <v>218900</v>
       </c>
       <c r="D11" s="2">
-        <v>375.42627199999998</v>
+        <v>54.697651</v>
       </c>
       <c r="E11" s="2">
-        <v>1.222736</v>
+        <v>1.176126</v>
       </c>
       <c r="F11" s="2">
-        <v>1.370611</v>
+        <v>0.41473900000000002</v>
       </c>
       <c r="G11" s="2">
-        <v>0.79326099999999999</v>
+        <v>0.27645700000000001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>32.7712</v>
+        <v>39.688000000000002</v>
       </c>
       <c r="J11">
-        <v>2299</v>
+        <v>4002</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C12" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D12" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E12" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F12" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G12" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J12">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K12">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C13" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D13" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E13" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G13" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J13">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K13">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C14" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D14" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F14" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G14" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J14">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K14">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C15" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D15" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E15" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F15" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J15">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K15">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C16" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D16" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F16" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G16" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J16">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K16">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C17" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D17" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E17" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F17" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G17" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J17">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K17">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C18" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D18" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E18" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F18" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G18" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J18">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K18">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C19" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D19" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E19" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G19" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J19">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K19">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C20" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D20" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E20" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F20" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G20" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J20">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K20">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>1687494</v>
+        <v>1214687</v>
       </c>
       <c r="C21" s="1">
-        <v>687494</v>
+        <v>214687</v>
       </c>
       <c r="D21" s="2">
-        <v>807.86604</v>
+        <v>53.140346999999998</v>
       </c>
       <c r="E21" s="2">
-        <v>1.3441749999999999</v>
+        <v>1.172113</v>
       </c>
       <c r="F21" s="2">
-        <v>1.1132550000000001</v>
+        <v>0.40625899999999998</v>
       </c>
       <c r="G21" s="2">
-        <v>1.000313</v>
+        <v>0.270125</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>33.080599999999997</v>
+        <v>39.832500000000003</v>
       </c>
       <c r="J21">
-        <v>851</v>
+        <v>4040</v>
       </c>
       <c r="K21">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C22" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D22" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E22" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J22">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K22">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C23" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D23" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E23" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F23" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J23">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K23">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C24" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D24" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E24" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J24">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K24">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C25" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D25" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E25" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J25">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K25">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C26" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D26" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E26" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J26">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K26">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>1676253</v>
+        <v>1125554</v>
       </c>
       <c r="C27" s="1">
-        <v>676253</v>
+        <v>125554</v>
       </c>
       <c r="D27" s="2">
-        <v>779.09331799999995</v>
+        <v>67.647628999999995</v>
       </c>
       <c r="E27" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2381070000000001</v>
       </c>
       <c r="F27" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40420400000000001</v>
       </c>
       <c r="G27" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38945200000000002</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9023</v>
       </c>
       <c r="J27">
-        <v>868</v>
+        <v>1856</v>
       </c>
       <c r="K27">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
-        <v>1676253</v>
+        <v>1124899</v>
       </c>
       <c r="C28" s="1">
-        <v>676253</v>
+        <v>124899</v>
       </c>
       <c r="D28" s="2">
-        <v>779.09331799999995</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E28" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J28">
-        <v>868</v>
+        <v>1866</v>
       </c>
       <c r="K28">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>1676253</v>
+        <v>1124899</v>
       </c>
       <c r="C29" s="1">
-        <v>676253</v>
+        <v>124899</v>
       </c>
       <c r="D29" s="2">
-        <v>779.09331799999995</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E29" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J29">
-        <v>868</v>
+        <v>1866</v>
       </c>
       <c r="K29">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>1676253</v>
+        <v>1124899</v>
       </c>
       <c r="C30" s="1">
-        <v>676253</v>
+        <v>124899</v>
       </c>
       <c r="D30" s="2">
-        <v>779.09331799999995</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E30" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J30">
-        <v>868</v>
+        <v>1866</v>
       </c>
       <c r="K30">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>1676253</v>
+        <v>1124899</v>
       </c>
       <c r="C31" s="1">
-        <v>676253</v>
+        <v>124899</v>
       </c>
       <c r="D31" s="2">
-        <v>779.09331799999995</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E31" s="2">
-        <v>1.3364370000000001</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>1.0950530000000001</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>0.97684899999999997</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>33.280999999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J31">
-        <v>868</v>
+        <v>1866</v>
       </c>
       <c r="K31">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C32" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D32" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E32" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G32" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J32">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K32">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C33" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D33" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F33" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G33" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J33">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K33">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C34" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D34" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E34" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G34" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J34">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K34">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C35" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D35" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E35" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F35" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G35" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J35">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K35">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C36" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D36" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F36" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G36" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J36">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K36">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>1365507</v>
+        <v>1124899</v>
       </c>
       <c r="C37" s="1">
-        <v>365507</v>
+        <v>124899</v>
       </c>
       <c r="D37" s="2">
-        <v>687.04323299999999</v>
+        <v>66.934083999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>1.3085169999999999</v>
+        <v>1.2360370000000001</v>
       </c>
       <c r="F37" s="2">
-        <v>0.95255299999999998</v>
+        <v>0.40209600000000001</v>
       </c>
       <c r="G37" s="2">
-        <v>0.95232700000000003</v>
+        <v>0.38616400000000001</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>26.680099999999999</v>
+        <v>22.9133</v>
       </c>
       <c r="J37">
-        <v>532</v>
+        <v>1866</v>
       </c>
       <c r="K37">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C38" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D38" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E38" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F38" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G38" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J38">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K38">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C39" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D39" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E39" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F39" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G39" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J39">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K39">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C40" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D40" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E40" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F40" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G40" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J40">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K40">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C41" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D41" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E41" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F41" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G41" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J41">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K41">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C42" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D42" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E42" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F42" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G42" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J42">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K42">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C43" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D43" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E43" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F43" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G43" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J43">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K43">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C44" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D44" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E44" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F44" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G44" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J44">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K44">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C45" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D45" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E45" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F45" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J45">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K45">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C46" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D46" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E46" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F46" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G46" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J46">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K46">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1">
-        <v>1358261</v>
+        <v>698607</v>
       </c>
       <c r="C47" s="1">
-        <v>358261</v>
+        <v>-301393</v>
       </c>
       <c r="D47" s="2">
-        <v>665.91263900000001</v>
+        <v>-46.098654000000003</v>
       </c>
       <c r="E47" s="2">
-        <v>1.3005629999999999</v>
+        <v>0.82857599999999998</v>
       </c>
       <c r="F47" s="2">
-        <v>0.93366899999999997</v>
+        <v>-0.42721700000000001</v>
       </c>
       <c r="G47" s="2">
-        <v>0.92758399999999996</v>
+        <v>-0.46917199999999998</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>26.815200000000001</v>
+        <v>50.244700000000002</v>
       </c>
       <c r="J47">
-        <v>538</v>
+        <v>6538</v>
       </c>
       <c r="K47">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Logic46.xlsx
+++ b/Logic46.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\30CF3465B87D17D00E7FD8366A68D7C6\MQL5\Experts\Logic46\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\EE0304F13905552AE0B5EAEFB04866EB\MQL5\Experts\Logic46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7B1A10-F43A-4C81-9BA4-662AE93056A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568327FE-D3DF-4916-99C6-151902DDFE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34800" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34800" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tester Optimizator Results" sheetId="1" r:id="rId1"/>
+    <sheet name="ATR_SCAN_BARS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Pass</t>
   </si>
@@ -54,13 +55,16 @@
   <si>
     <t>MTF_ENTRY_PERCENTAGE</t>
   </si>
+  <si>
+    <t>ATR_SCAN_BARS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -648,17 +652,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,10 +1028,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2686,4 +2699,2098 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729FB69-A769-453A-B960-4CBAC23EBF08}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1263772</v>
+      </c>
+      <c r="C2" s="4">
+        <v>263772</v>
+      </c>
+      <c r="D2" s="5">
+        <v>55.228642999999998</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.151249</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.787909</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.5108039999999998</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>12.6753</v>
+      </c>
+      <c r="J2">
+        <v>4776</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1260308</v>
+      </c>
+      <c r="C3" s="4">
+        <v>260308</v>
+      </c>
+      <c r="D3" s="5">
+        <v>52.897379000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.1476440000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.727131</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.4542459999999999</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>12.9633</v>
+      </c>
+      <c r="J3">
+        <v>4921</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1238803</v>
+      </c>
+      <c r="C4" s="4">
+        <v>238803</v>
+      </c>
+      <c r="D4" s="5">
+        <v>56.057042000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.140212</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4033610000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.3554659999999998</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>14.6114</v>
+      </c>
+      <c r="J4">
+        <v>4260</v>
+      </c>
+      <c r="K4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1234151</v>
+      </c>
+      <c r="C5" s="4">
+        <v>234151</v>
+      </c>
+      <c r="D5" s="5">
+        <v>49.936233999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.1340509999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.402614</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.4098069999999998</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>14.9712</v>
+      </c>
+      <c r="J5">
+        <v>4689</v>
+      </c>
+      <c r="K5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1220730</v>
+      </c>
+      <c r="C6" s="4">
+        <v>220730</v>
+      </c>
+      <c r="D6" s="5">
+        <v>46.410848999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.126031</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.3301959999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.2631450000000002</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>14.881399999999999</v>
+      </c>
+      <c r="J6">
+        <v>4756</v>
+      </c>
+      <c r="K6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1217846</v>
+      </c>
+      <c r="C7" s="4">
+        <v>217846</v>
+      </c>
+      <c r="D7" s="5">
+        <v>46.232173000000003</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.125489</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.5576000000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.1459039999999998</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>12.0084</v>
+      </c>
+      <c r="J7">
+        <v>4712</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1213504</v>
+      </c>
+      <c r="C8" s="4">
+        <v>213504</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50.461829000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.125829</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.254983</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.1313770000000001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>14.607900000000001</v>
+      </c>
+      <c r="J8">
+        <v>4231</v>
+      </c>
+      <c r="K8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1212554</v>
+      </c>
+      <c r="C9" s="4">
+        <v>212554</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50.249172999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.1250340000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.270003</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.1238769999999998</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>14.371</v>
+      </c>
+      <c r="J9">
+        <v>4230</v>
+      </c>
+      <c r="K9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1212450</v>
+      </c>
+      <c r="C10" s="4">
+        <v>212450</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45.984848</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.122512</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.2853319999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.2378330000000002</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>14.8231</v>
+      </c>
+      <c r="J10">
+        <v>4620</v>
+      </c>
+      <c r="K10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1212175</v>
+      </c>
+      <c r="C11" s="4">
+        <v>212175</v>
+      </c>
+      <c r="D11" s="5">
+        <v>48.820754999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.1230089999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.2472449999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.0856479999999999</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>14.6234</v>
+      </c>
+      <c r="J11">
+        <v>4346</v>
+      </c>
+      <c r="K11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1211293</v>
+      </c>
+      <c r="C12" s="4">
+        <v>211293</v>
+      </c>
+      <c r="D12" s="5">
+        <v>49.868538999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.12418</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.2518469999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.106109</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>14.492900000000001</v>
+      </c>
+      <c r="J12">
+        <v>4237</v>
+      </c>
+      <c r="K12">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1209617</v>
+      </c>
+      <c r="C13" s="4">
+        <v>209617</v>
+      </c>
+      <c r="D13" s="5">
+        <v>48.198895999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.121748</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.228885</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.0657420000000002</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>14.663</v>
+      </c>
+      <c r="J13">
+        <v>4349</v>
+      </c>
+      <c r="K13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1208825</v>
+      </c>
+      <c r="C14" s="4">
+        <v>208825</v>
+      </c>
+      <c r="D14" s="5">
+        <v>48.939535999999997</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.122053</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.2239549999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2.0844559999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>14.65</v>
+      </c>
+      <c r="J14">
+        <v>4267</v>
+      </c>
+      <c r="K14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1206864</v>
+      </c>
+      <c r="C15" s="4">
+        <v>206864</v>
+      </c>
+      <c r="D15" s="5">
+        <v>48.938727</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.1219170000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.2055359999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.0764999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>14.7342</v>
+      </c>
+      <c r="J15">
+        <v>4227</v>
+      </c>
+      <c r="K15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1206034</v>
+      </c>
+      <c r="C16" s="4">
+        <v>206034</v>
+      </c>
+      <c r="D16" s="5">
+        <v>48.004193999999998</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.119796</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.1726129999999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.0459870000000002</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>15.0939</v>
+      </c>
+      <c r="J16">
+        <v>4292</v>
+      </c>
+      <c r="K16">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1205534</v>
+      </c>
+      <c r="C17" s="4">
+        <v>205534</v>
+      </c>
+      <c r="D17" s="5">
+        <v>48.589598000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.120989</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.198833</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.0616910000000002</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>14.721299999999999</v>
+      </c>
+      <c r="J17">
+        <v>4230</v>
+      </c>
+      <c r="K17">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1204944</v>
+      </c>
+      <c r="C18" s="4">
+        <v>204944</v>
+      </c>
+      <c r="D18" s="5">
+        <v>47.962555999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.1199319999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.1814039999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.046767</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>14.8956</v>
+      </c>
+      <c r="J18">
+        <v>4273</v>
+      </c>
+      <c r="K18">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1204585</v>
+      </c>
+      <c r="C19" s="4">
+        <v>204585</v>
+      </c>
+      <c r="D19" s="5">
+        <v>47.368603999999998</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.1190910000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.1840440000000001</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.0289090000000001</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14.8431</v>
+      </c>
+      <c r="J19">
+        <v>4319</v>
+      </c>
+      <c r="K19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1202210</v>
+      </c>
+      <c r="C20" s="4">
+        <v>202210</v>
+      </c>
+      <c r="D20" s="5">
+        <v>41.952281999999997</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.1142510000000001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.219322</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.0771959999999998</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>14.872400000000001</v>
+      </c>
+      <c r="J20">
+        <v>4820</v>
+      </c>
+      <c r="K20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1201137</v>
+      </c>
+      <c r="C21" s="4">
+        <v>201137</v>
+      </c>
+      <c r="D21" s="5">
+        <v>46.174702000000003</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.1176870000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.1452180000000001</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1.9975689999999999</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>15.0977</v>
+      </c>
+      <c r="J21">
+        <v>4356</v>
+      </c>
+      <c r="K21">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1200294</v>
+      </c>
+      <c r="C22" s="4">
+        <v>200294</v>
+      </c>
+      <c r="D22" s="5">
+        <v>46.732151000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.116736</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.139167</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.994165</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>15.1143</v>
+      </c>
+      <c r="J22">
+        <v>4286</v>
+      </c>
+      <c r="K22">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1200272</v>
+      </c>
+      <c r="C23" s="4">
+        <v>200272</v>
+      </c>
+      <c r="D23" s="5">
+        <v>47.289727999999997</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.1178950000000001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.1372949999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.0055139999999998</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>15.117599999999999</v>
+      </c>
+      <c r="J23">
+        <v>4235</v>
+      </c>
+      <c r="K23">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1200194</v>
+      </c>
+      <c r="C24" s="4">
+        <v>200194</v>
+      </c>
+      <c r="D24" s="5">
+        <v>46.774298999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.11677</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1.1287119999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1.9960469999999999</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>15.239699999999999</v>
+      </c>
+      <c r="J24">
+        <v>4280</v>
+      </c>
+      <c r="K24">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1200053</v>
+      </c>
+      <c r="C25" s="4">
+        <v>200053</v>
+      </c>
+      <c r="D25" s="5">
+        <v>47.361032000000002</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.117915</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1.145025</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.0088840000000001</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>15.0021</v>
+      </c>
+      <c r="J25">
+        <v>4224</v>
+      </c>
+      <c r="K25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1200048</v>
+      </c>
+      <c r="C26" s="4">
+        <v>200048</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45.893095000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.116085</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.135127</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1.9707939999999999</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>15.1494</v>
+      </c>
+      <c r="J26">
+        <v>4359</v>
+      </c>
+      <c r="K26">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1199202</v>
+      </c>
+      <c r="C27" s="4">
+        <v>199202</v>
+      </c>
+      <c r="D27" s="5">
+        <v>46.477367999999998</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.115896</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.132892</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.9917910000000001</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>15.042999999999999</v>
+      </c>
+      <c r="J27">
+        <v>4286</v>
+      </c>
+      <c r="K27">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1198104</v>
+      </c>
+      <c r="C28" s="4">
+        <v>198104</v>
+      </c>
+      <c r="D28" s="5">
+        <v>46.525129</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.1165259999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.127866</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.9815100000000001</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>15.078900000000001</v>
+      </c>
+      <c r="J28">
+        <v>4258</v>
+      </c>
+      <c r="K28">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1198054</v>
+      </c>
+      <c r="C29" s="4">
+        <v>198054</v>
+      </c>
+      <c r="D29" s="5">
+        <v>46.633859000000001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.11659</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.1213249999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.9814700000000001</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>15.1631</v>
+      </c>
+      <c r="J29">
+        <v>4247</v>
+      </c>
+      <c r="K29">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1196663</v>
+      </c>
+      <c r="C30" s="4">
+        <v>196663</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45.927836999999997</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.1151580000000001</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.1190249999999999</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.9707049999999999</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>15.0764</v>
+      </c>
+      <c r="J30">
+        <v>4282</v>
+      </c>
+      <c r="K30">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1195257</v>
+      </c>
+      <c r="C31" s="4">
+        <v>195257</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44.866039000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.1135349999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.0895189999999999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.9243980000000001</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>15.4056</v>
+      </c>
+      <c r="J31">
+        <v>4352</v>
+      </c>
+      <c r="K31">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1194631</v>
+      </c>
+      <c r="C32" s="4">
+        <v>194631</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45.655875999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.11439</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.0996410000000001</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.9605539999999999</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>15.142200000000001</v>
+      </c>
+      <c r="J32">
+        <v>4263</v>
+      </c>
+      <c r="K32">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1194562</v>
+      </c>
+      <c r="C33" s="4">
+        <v>194562</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45.704017</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.114673</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1.0824940000000001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.945619</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>15.430099999999999</v>
+      </c>
+      <c r="J33">
+        <v>4257</v>
+      </c>
+      <c r="K33">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1194081</v>
+      </c>
+      <c r="C34" s="4">
+        <v>194081</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45.666117999999997</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.1146590000000001</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.088533</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.945255</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>15.3065</v>
+      </c>
+      <c r="J34">
+        <v>4250</v>
+      </c>
+      <c r="K34">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1193761</v>
+      </c>
+      <c r="C35" s="4">
+        <v>193761</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45.462459000000003</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1.1137330000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.093243</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.9464049999999999</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>15.1739</v>
+      </c>
+      <c r="J35">
+        <v>4262</v>
+      </c>
+      <c r="K35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1193594</v>
+      </c>
+      <c r="C36" s="4">
+        <v>193594</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45.221677</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.113375</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.0894740000000001</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.9392560000000001</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>15.2437</v>
+      </c>
+      <c r="J36">
+        <v>4281</v>
+      </c>
+      <c r="K36">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1193534</v>
+      </c>
+      <c r="C37" s="4">
+        <v>193534</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45.271110999999998</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.1125449999999999</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.1077760000000001</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.943738</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>14.9872</v>
+      </c>
+      <c r="J37">
+        <v>4275</v>
+      </c>
+      <c r="K37">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1193532</v>
+      </c>
+      <c r="C38" s="4">
+        <v>193532</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45.186084999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.1121430000000001</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.1247609999999999</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.945918</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>14.720499999999999</v>
+      </c>
+      <c r="J38">
+        <v>4283</v>
+      </c>
+      <c r="K38">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1193224</v>
+      </c>
+      <c r="C39" s="4">
+        <v>193224</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45.198596000000002</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.1124400000000001</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.087208</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.9392529999999999</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>15.2463</v>
+      </c>
+      <c r="J39">
+        <v>4275</v>
+      </c>
+      <c r="K39">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1192755</v>
+      </c>
+      <c r="C40" s="4">
+        <v>192755</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45.173423999999997</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.112959</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.089658</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.9350179999999999</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>15.1751</v>
+      </c>
+      <c r="J40">
+        <v>4267</v>
+      </c>
+      <c r="K40">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1192372</v>
+      </c>
+      <c r="C41" s="4">
+        <v>192372</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45.062544000000003</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.112862</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.0913729999999999</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.930466</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>15.1211</v>
+      </c>
+      <c r="J41">
+        <v>4269</v>
+      </c>
+      <c r="K41">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1191967</v>
+      </c>
+      <c r="C42" s="4">
+        <v>191967</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44.140492000000002</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.1113299999999999</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.0843510000000001</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.8924719999999999</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>15.2182</v>
+      </c>
+      <c r="J42">
+        <v>4349</v>
+      </c>
+      <c r="K42">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1191735</v>
+      </c>
+      <c r="C43" s="4">
+        <v>191735</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45.008215999999997</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.112031</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.077799</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.9184490000000001</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>15.2608</v>
+      </c>
+      <c r="J43">
+        <v>4260</v>
+      </c>
+      <c r="K43">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1191357</v>
+      </c>
+      <c r="C44" s="4">
+        <v>191357</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44.000230000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.111656</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.065984</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.903044</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>15.4312</v>
+      </c>
+      <c r="J44">
+        <v>4349</v>
+      </c>
+      <c r="K44">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>74</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1191045</v>
+      </c>
+      <c r="C45" s="4">
+        <v>191045</v>
+      </c>
+      <c r="D45" s="5">
+        <v>44.856774000000001</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.1119870000000001</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.072112</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.917503</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>15.2866</v>
+      </c>
+      <c r="J45">
+        <v>4259</v>
+      </c>
+      <c r="K45">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>67</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1190195</v>
+      </c>
+      <c r="C46" s="4">
+        <v>190195</v>
+      </c>
+      <c r="D46" s="5">
+        <v>44.448469000000003</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.1105769999999999</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.0748819999999999</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1.9047860000000001</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>15.1793</v>
+      </c>
+      <c r="J46">
+        <v>4279</v>
+      </c>
+      <c r="K46">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1189830</v>
+      </c>
+      <c r="C47" s="4">
+        <v>189830</v>
+      </c>
+      <c r="D47" s="5">
+        <v>40.718575999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.1100289999999999</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1.4001330000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.0584250000000002</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>12.1533</v>
+      </c>
+      <c r="J47">
+        <v>4662</v>
+      </c>
+      <c r="K47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1189623</v>
+      </c>
+      <c r="C48" s="4">
+        <v>189623</v>
+      </c>
+      <c r="D48" s="5">
+        <v>44.294089999999997</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.110625</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1.08863</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1.902425</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>14.942600000000001</v>
+      </c>
+      <c r="J48">
+        <v>4281</v>
+      </c>
+      <c r="K48">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>73</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1189425</v>
+      </c>
+      <c r="C49" s="4">
+        <v>189425</v>
+      </c>
+      <c r="D49" s="5">
+        <v>44.413834000000001</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.110832</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1.0825210000000001</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.9009100000000001</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>15.011200000000001</v>
+      </c>
+      <c r="J49">
+        <v>4265</v>
+      </c>
+      <c r="K49">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1188055</v>
+      </c>
+      <c r="C50" s="4">
+        <v>188055</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43.171487999999997</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1.109421</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1.0747599999999999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1.86524</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>15.0411</v>
+      </c>
+      <c r="J50">
+        <v>4356</v>
+      </c>
+      <c r="K50">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>71</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1187815</v>
+      </c>
+      <c r="C51" s="4">
+        <v>187815</v>
+      </c>
+      <c r="D51" s="5">
+        <v>44.077680999999998</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.1098049999999999</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.0654049999999999</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1.8841060000000001</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>15.1227</v>
+      </c>
+      <c r="J51">
+        <v>4261</v>
+      </c>
+      <c r="K51">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1187621</v>
+      </c>
+      <c r="C52" s="4">
+        <v>187621</v>
+      </c>
+      <c r="D52" s="5">
+        <v>43.002749999999999</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.1093010000000001</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1.0340720000000001</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1.866846</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>15.5968</v>
+      </c>
+      <c r="J52">
+        <v>4363</v>
+      </c>
+      <c r="K52">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>72</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1185275</v>
+      </c>
+      <c r="C53" s="4">
+        <v>185275</v>
+      </c>
+      <c r="D53" s="5">
+        <v>43.491784000000003</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.1083419999999999</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.069933</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1.863969</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>14.8551</v>
+      </c>
+      <c r="J53">
+        <v>4260</v>
+      </c>
+      <c r="K53">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1184785</v>
+      </c>
+      <c r="C54" s="4">
+        <v>184785</v>
+      </c>
+      <c r="D54" s="5">
+        <v>43.163980000000002</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1.107232</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.0406610000000001</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1.853683</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>15.2325</v>
+      </c>
+      <c r="J54">
+        <v>4281</v>
+      </c>
+      <c r="K54">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>69</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1184275</v>
+      </c>
+      <c r="C55" s="4">
+        <v>184275</v>
+      </c>
+      <c r="D55" s="5">
+        <v>43.145632999999997</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.1071089999999999</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1.0316879999999999</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1.845267</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>15.3226</v>
+      </c>
+      <c r="J55">
+        <v>4271</v>
+      </c>
+      <c r="K55">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1183917</v>
+      </c>
+      <c r="C56" s="4">
+        <v>183917</v>
+      </c>
+      <c r="D56" s="5">
+        <v>38.605584</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.104976</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.2943610000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1.969848</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>12.7516</v>
+      </c>
+      <c r="J56">
+        <v>4764</v>
+      </c>
+      <c r="K56">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1182485</v>
+      </c>
+      <c r="C57" s="4">
+        <v>182485</v>
+      </c>
+      <c r="D57" s="5">
+        <v>41.979526</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.106258</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1.0587800000000001</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1.80664</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>14.815899999999999</v>
+      </c>
+      <c r="J57">
+        <v>4347</v>
+      </c>
+      <c r="K57">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1181231</v>
+      </c>
+      <c r="C58" s="4">
+        <v>181231</v>
+      </c>
+      <c r="D58" s="5">
+        <v>37.599792999999998</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.1023559999999999</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1.1407</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1.9015759999999999</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>14.248200000000001</v>
+      </c>
+      <c r="J58">
+        <v>4820</v>
+      </c>
+      <c r="K58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1179481</v>
+      </c>
+      <c r="C59" s="4">
+        <v>179481</v>
+      </c>
+      <c r="D59" s="5">
+        <v>39.085583999999997</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1.1027960000000001</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1.034729</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1.906379</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>15.5557</v>
+      </c>
+      <c r="J59">
+        <v>4592</v>
+      </c>
+      <c r="K59">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>